--- a/Code/Results/Cases/Case_2_205/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_205/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.11159495557886</v>
+        <v>11.95032329936273</v>
       </c>
       <c r="C2">
-        <v>9.360507461620154</v>
+        <v>8.377319678785501</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.8553765152079</v>
+        <v>15.61354733220693</v>
       </c>
       <c r="F2">
-        <v>36.50753076108816</v>
+        <v>45.5150150595041</v>
       </c>
       <c r="G2">
-        <v>2.120602979657928</v>
+        <v>3.703368190076126</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.81865056921924</v>
+        <v>27.90804241427117</v>
       </c>
       <c r="J2">
-        <v>5.711707750755219</v>
+        <v>9.355610019263723</v>
       </c>
       <c r="K2">
-        <v>12.08130668996402</v>
+        <v>12.83475567117315</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.10265046006079</v>
+        <v>18.20853990229797</v>
       </c>
       <c r="N2">
-        <v>14.59464367617387</v>
+        <v>21.85661907271963</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.19191423919636</v>
+        <v>11.75483818139408</v>
       </c>
       <c r="C3">
-        <v>8.795947069470579</v>
+        <v>8.239845723147175</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.26754884049402</v>
+        <v>15.55097186909677</v>
       </c>
       <c r="F3">
-        <v>35.28482836082103</v>
+        <v>45.40045695178148</v>
       </c>
       <c r="G3">
-        <v>2.128018049701545</v>
+        <v>3.706015662677202</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.74195267195517</v>
+        <v>27.9565210270328</v>
       </c>
       <c r="J3">
-        <v>5.774906030332901</v>
+        <v>9.375836252432247</v>
       </c>
       <c r="K3">
-        <v>11.38656766526141</v>
+        <v>12.71316611464694</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.45450203819686</v>
+        <v>18.13629358692559</v>
       </c>
       <c r="N3">
-        <v>14.80220804330364</v>
+        <v>21.91653272859114</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.66163762141426</v>
+        <v>11.63647734020331</v>
       </c>
       <c r="C4">
-        <v>8.438375696259783</v>
+        <v>8.156875839012327</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.89741819504956</v>
+        <v>15.51562652835702</v>
       </c>
       <c r="F4">
-        <v>34.54289027194747</v>
+        <v>45.34072724132225</v>
       </c>
       <c r="G4">
-        <v>2.132692688509584</v>
+        <v>3.707725912344236</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.7095310646676</v>
+        <v>27.99132133975244</v>
       </c>
       <c r="J4">
-        <v>5.814845650026409</v>
+        <v>9.388919298169538</v>
       </c>
       <c r="K4">
-        <v>10.96920216710086</v>
+        <v>12.64122137246965</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.04920008934952</v>
+        <v>18.09566728336914</v>
       </c>
       <c r="N4">
-        <v>14.93355722869923</v>
+        <v>21.9552578708792</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.4464976845023</v>
+        <v>11.58873101128005</v>
       </c>
       <c r="C5">
-        <v>8.290028237683343</v>
+        <v>8.123473766226969</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.74446259909677</v>
+        <v>15.5020072581182</v>
       </c>
       <c r="F5">
-        <v>34.24308834820346</v>
+        <v>45.31906877630643</v>
       </c>
       <c r="G5">
-        <v>2.134629468097951</v>
+        <v>3.708444222263829</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.69985582682833</v>
+        <v>28.00676589209519</v>
       </c>
       <c r="J5">
-        <v>5.831412598137076</v>
+        <v>9.394418168760676</v>
       </c>
       <c r="K5">
-        <v>10.79633808915296</v>
+        <v>12.61261608488916</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.88241110160452</v>
+        <v>18.08006290777535</v>
       </c>
       <c r="N5">
-        <v>14.9880652594186</v>
+        <v>21.97152674918894</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.41047946724362</v>
+        <v>11.5808341211265</v>
       </c>
       <c r="C6">
-        <v>8.265240146199627</v>
+        <v>8.117953425623435</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.71894231952443</v>
+        <v>15.4997934489618</v>
       </c>
       <c r="F6">
-        <v>34.19347012431049</v>
+        <v>45.3156347395927</v>
       </c>
       <c r="G6">
-        <v>2.134953025170363</v>
+        <v>3.708564789879885</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.69845843434629</v>
+        <v>28.00940665414081</v>
       </c>
       <c r="J6">
-        <v>5.834181279746359</v>
+        <v>9.395341376971809</v>
       </c>
       <c r="K6">
-        <v>10.7674720224672</v>
+        <v>12.60791012294423</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.85462482968584</v>
+        <v>18.07752960191111</v>
       </c>
       <c r="N6">
-        <v>14.99717564087822</v>
+        <v>21.97425768486282</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.65875601404328</v>
+        <v>11.63583135742688</v>
       </c>
       <c r="C7">
-        <v>8.436385521211974</v>
+        <v>8.156423650256979</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.89536370913112</v>
+        <v>15.51543966531863</v>
       </c>
       <c r="F7">
-        <v>34.53883628795911</v>
+        <v>45.34042427247335</v>
       </c>
       <c r="G7">
-        <v>2.132718678182487</v>
+        <v>3.707735513103164</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.70938646135123</v>
+        <v>27.99152451984365</v>
       </c>
       <c r="J7">
-        <v>5.815067891107451</v>
+        <v>9.388992779389902</v>
       </c>
       <c r="K7">
-        <v>10.96688186788382</v>
+        <v>12.64083266583064</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.04695698031028</v>
+        <v>18.09545297050581</v>
       </c>
       <c r="N7">
-        <v>14.93428836445978</v>
+        <v>21.95547530150753</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.80084315296062</v>
+        <v>11.88261433968447</v>
       </c>
       <c r="C8">
-        <v>9.168173580455354</v>
+        <v>8.329648088466511</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.65470709127968</v>
+        <v>15.591339535399</v>
       </c>
       <c r="F8">
-        <v>36.08430571909151</v>
+        <v>45.47332268408775</v>
       </c>
       <c r="G8">
-        <v>2.12313517669163</v>
+        <v>3.704263505146824</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.78906825250154</v>
+        <v>27.92371137951926</v>
       </c>
       <c r="J8">
-        <v>5.733266284125907</v>
+        <v>9.36244646522635</v>
       </c>
       <c r="K8">
-        <v>11.82189877588275</v>
+        <v>12.79228773315622</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.88081293271873</v>
+        <v>18.18286233780692</v>
       </c>
       <c r="N8">
-        <v>14.66540147836723</v>
+        <v>21.87687554728262</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.92807118567783</v>
+        <v>12.37682781303091</v>
       </c>
       <c r="C9">
-        <v>10.52392892928384</v>
+        <v>8.678690887238695</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.0640729125809</v>
+        <v>15.76407601158204</v>
       </c>
       <c r="F9">
-        <v>39.17182269701874</v>
+        <v>45.81737943993907</v>
       </c>
       <c r="G9">
-        <v>2.105249330667695</v>
+        <v>3.698123553256232</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.06859254288912</v>
+        <v>27.830791543474</v>
       </c>
       <c r="J9">
-        <v>5.581598993141585</v>
+        <v>9.315638034422546</v>
       </c>
       <c r="K9">
-        <v>13.74893540398737</v>
+        <v>13.10938520671625</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.44986149248278</v>
+        <v>18.38329647176801</v>
       </c>
       <c r="N9">
-        <v>14.16915125485572</v>
+        <v>21.73808265784492</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.34882794531751</v>
+        <v>12.74226424641001</v>
       </c>
       <c r="C10">
-        <v>11.54731340016412</v>
+        <v>8.938068331625711</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.04411594651186</v>
+        <v>15.9048110595362</v>
       </c>
       <c r="F10">
-        <v>41.46019926955709</v>
+        <v>46.11986708759709</v>
       </c>
       <c r="G10">
-        <v>2.092573307849899</v>
+        <v>3.694015478184833</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.35859080938302</v>
+        <v>27.78709631905667</v>
       </c>
       <c r="J10">
-        <v>5.475119408137222</v>
+        <v>9.284419349777915</v>
       </c>
       <c r="K10">
-        <v>15.05496988268282</v>
+        <v>13.35262774056384</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.58194291856598</v>
+        <v>18.54737962946579</v>
       </c>
       <c r="N10">
-        <v>13.82373143021379</v>
+        <v>21.64541324315353</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.96548899304038</v>
+        <v>12.90821221015296</v>
       </c>
       <c r="C11">
-        <v>11.99501857031074</v>
+        <v>9.056131489032362</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.47703350650927</v>
+        <v>15.97166189538221</v>
       </c>
       <c r="F11">
-        <v>42.50337680805908</v>
+        <v>46.26796786234541</v>
       </c>
       <c r="G11">
-        <v>2.086885994706343</v>
+        <v>3.69223310804351</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.51096492262442</v>
+        <v>27.7725815994211</v>
       </c>
       <c r="J11">
-        <v>5.427668404589111</v>
+        <v>9.270899810615589</v>
       </c>
       <c r="K11">
-        <v>15.62239429135531</v>
+        <v>13.46507923151145</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.20058503152865</v>
+        <v>18.6254722891649</v>
       </c>
       <c r="N11">
-        <v>13.67087985594376</v>
+        <v>21.60526480786388</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.19484398703379</v>
+        <v>12.97094604308329</v>
       </c>
       <c r="C12">
-        <v>12.16206934408199</v>
+        <v>9.100803174513334</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.63906822359196</v>
+        <v>15.99736754133095</v>
       </c>
       <c r="F12">
-        <v>42.89859710904624</v>
+        <v>46.32552962358621</v>
       </c>
       <c r="G12">
-        <v>2.084741762088007</v>
+        <v>3.691570521162491</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20.57177935278996</v>
+        <v>27.76785815045931</v>
       </c>
       <c r="J12">
-        <v>5.409834782918136</v>
+        <v>9.265877936933144</v>
       </c>
       <c r="K12">
-        <v>15.83353052018124</v>
+        <v>13.50788332528183</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.43067536808892</v>
+        <v>18.65552130030094</v>
       </c>
       <c r="N12">
-        <v>13.61363193575952</v>
+        <v>21.59034958635084</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.14563164256746</v>
+        <v>12.95744096244756</v>
       </c>
       <c r="C13">
-        <v>12.12620111568903</v>
+        <v>9.091184662921368</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.60425622403116</v>
+        <v>15.9918142600118</v>
       </c>
       <c r="F13">
-        <v>42.8134721815234</v>
+        <v>46.31306738868355</v>
       </c>
       <c r="G13">
-        <v>2.085203174419653</v>
+        <v>3.691712672558131</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20.55854060308803</v>
+        <v>27.76884102558859</v>
       </c>
       <c r="J13">
-        <v>5.413669677937016</v>
+        <v>9.266955148958539</v>
       </c>
       <c r="K13">
-        <v>15.78822293865843</v>
+        <v>13.49865546027484</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.38130527031941</v>
+        <v>18.64902880606184</v>
       </c>
       <c r="N13">
-        <v>13.62593276947114</v>
+        <v>21.59354904022859</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.98444094897595</v>
+        <v>12.91337587048983</v>
       </c>
       <c r="C14">
-        <v>12.00881125129741</v>
+        <v>9.059807642622546</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.49040249799803</v>
+        <v>15.97376897969933</v>
       </c>
       <c r="F14">
-        <v>42.53588848404771</v>
+        <v>46.27267403982056</v>
       </c>
       <c r="G14">
-        <v>2.086709410180499</v>
+        <v>3.692178349338281</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.51590475658709</v>
+        <v>27.77217749755753</v>
       </c>
       <c r="J14">
-        <v>5.426198555428377</v>
+        <v>9.270484702550306</v>
       </c>
       <c r="K14">
-        <v>15.63983883050029</v>
+        <v>13.46859653307862</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.21959776599482</v>
+        <v>18.62793499181041</v>
       </c>
       <c r="N14">
-        <v>13.66615721222366</v>
+        <v>21.60403195224887</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.88516825520004</v>
+        <v>12.88636889462462</v>
       </c>
       <c r="C15">
-        <v>11.93658545823164</v>
+        <v>9.04058223740727</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.42041515759041</v>
+        <v>15.9627661104022</v>
       </c>
       <c r="F15">
-        <v>42.36588271760691</v>
+        <v>46.24812364272702</v>
       </c>
       <c r="G15">
-        <v>2.087633190394127</v>
+        <v>3.692465197173719</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.49019975267924</v>
+        <v>27.77432189534709</v>
       </c>
       <c r="J15">
-        <v>5.433890233795881</v>
+        <v>9.272659365736651</v>
       </c>
       <c r="K15">
-        <v>15.54846607388057</v>
+        <v>13.45021225749357</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.12000666115457</v>
+        <v>18.61507596103286</v>
       </c>
       <c r="N15">
-        <v>13.69087899668595</v>
+        <v>21.61049054475292</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.30793966046379</v>
+        <v>12.73140766997855</v>
       </c>
       <c r="C16">
-        <v>11.51770240238008</v>
+        <v>8.930350044821514</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.01555961797109</v>
+        <v>15.90049776984918</v>
       </c>
       <c r="F16">
-        <v>41.39205739220588</v>
+        <v>46.11039705553648</v>
       </c>
       <c r="G16">
-        <v>2.092946416372957</v>
+        <v>3.694133693291727</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.34905902632606</v>
+        <v>27.78815296042146</v>
       </c>
       <c r="J16">
-        <v>5.478239719693342</v>
+        <v>9.285316573706966</v>
       </c>
       <c r="K16">
-        <v>15.01735886628147</v>
+        <v>13.34531176594398</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.54092293251512</v>
+        <v>18.54234390326434</v>
       </c>
       <c r="N16">
-        <v>13.83380820519405</v>
+        <v>21.64807738455461</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.94630532344636</v>
+        <v>12.63622227841967</v>
       </c>
       <c r="C17">
-        <v>11.2562153781592</v>
+        <v>8.862710773158645</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.76384821829995</v>
+        <v>15.86301159354795</v>
       </c>
       <c r="F17">
-        <v>40.79510206810744</v>
+        <v>46.02857414790643</v>
       </c>
       <c r="G17">
-        <v>2.096224834652416</v>
+        <v>3.695179345610723</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.26783376935297</v>
+        <v>27.79801272385438</v>
       </c>
       <c r="J17">
-        <v>5.505694655606677</v>
+        <v>9.293255759077073</v>
       </c>
       <c r="K17">
-        <v>14.68477569036082</v>
+        <v>13.28139283496724</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.23731267555027</v>
+        <v>18.49859551184228</v>
       </c>
       <c r="N17">
-        <v>13.92259832268963</v>
+        <v>21.67164943547042</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.73550561857768</v>
+        <v>12.58145053240279</v>
       </c>
       <c r="C18">
-        <v>11.10413049182515</v>
+        <v>8.823815826779246</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.61785670117877</v>
+        <v>15.84171790223668</v>
       </c>
       <c r="F18">
-        <v>40.45195868425449</v>
+        <v>45.98250183652589</v>
       </c>
       <c r="G18">
-        <v>2.098118063084903</v>
+        <v>3.6957889148919</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.22302971535651</v>
+        <v>27.80418844522293</v>
       </c>
       <c r="J18">
-        <v>5.521579342115279</v>
+        <v>9.297886384177756</v>
       </c>
       <c r="K18">
-        <v>14.49096314219847</v>
+        <v>13.24479996995954</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.07262426098216</v>
+        <v>18.47375856350527</v>
       </c>
       <c r="N18">
-        <v>13.97406967435593</v>
+        <v>21.68539642699866</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.66364904760798</v>
+        <v>12.56290373066565</v>
       </c>
       <c r="C19">
-        <v>11.05234562667754</v>
+        <v>8.810649719506177</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.56821975958638</v>
+        <v>15.83455462817224</v>
       </c>
       <c r="F19">
-        <v>40.33581683797268</v>
+        <v>45.96707347162571</v>
       </c>
       <c r="G19">
-        <v>2.098760433976103</v>
+        <v>3.695996704324436</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.20818346270731</v>
+        <v>27.80636605124779</v>
       </c>
       <c r="J19">
-        <v>5.526973861632327</v>
+        <v>9.299465275280811</v>
       </c>
       <c r="K19">
-        <v>14.42490576728461</v>
+        <v>13.23244087308102</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.01667771808918</v>
+        <v>18.46540575511879</v>
       </c>
       <c r="N19">
-        <v>13.99156551188544</v>
+        <v>21.69008339482988</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.9850906991598</v>
+        <v>12.6463578515589</v>
       </c>
       <c r="C20">
-        <v>11.28422491610066</v>
+        <v>8.869910460982128</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.79076934647715</v>
+        <v>15.86697450512845</v>
       </c>
       <c r="F20">
-        <v>40.85862835677862</v>
+        <v>46.03718208041517</v>
       </c>
       <c r="G20">
-        <v>2.095875071571675</v>
+        <v>3.695067192407336</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.27628094836077</v>
+        <v>27.79691089191999</v>
       </c>
       <c r="J20">
-        <v>5.502762420594178</v>
+        <v>9.292403975980635</v>
       </c>
       <c r="K20">
-        <v>14.72043976628385</v>
+        <v>13.28817962493555</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.2677039639514</v>
+        <v>18.50321900231076</v>
       </c>
       <c r="N20">
-        <v>13.91310478427908</v>
+        <v>21.66912059649274</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.03189864224473</v>
+        <v>12.92632226884928</v>
       </c>
       <c r="C21">
-        <v>12.04335826022397</v>
+        <v>9.069025180490051</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.52389596571973</v>
+        <v>15.97905884542702</v>
       </c>
       <c r="F21">
-        <v>42.61741704524137</v>
+        <v>46.28449865386893</v>
       </c>
       <c r="G21">
-        <v>2.086266752680558</v>
+        <v>3.692041233928448</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.52834203822614</v>
+        <v>27.77117650358146</v>
       </c>
       <c r="J21">
-        <v>5.42251491115908</v>
+        <v>9.269445339098557</v>
       </c>
       <c r="K21">
-        <v>15.68352334335396</v>
+        <v>13.47741986608964</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.26720763965286</v>
+        <v>18.63411796687153</v>
       </c>
       <c r="N21">
-        <v>13.65432494924515</v>
+        <v>21.60094505153832</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.69184691189396</v>
+        <v>13.10864278784683</v>
       </c>
       <c r="C22">
-        <v>12.52505428017936</v>
+        <v>9.19892643619589</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.99194555829778</v>
+        <v>16.05458168334922</v>
       </c>
       <c r="F22">
-        <v>43.76798718256092</v>
+        <v>46.45474056352294</v>
       </c>
       <c r="G22">
-        <v>2.080041088023789</v>
+        <v>3.69013559573107</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.71131066436714</v>
+        <v>27.75886365983033</v>
       </c>
       <c r="J22">
-        <v>5.370852348481867</v>
+        <v>9.255009733796106</v>
       </c>
       <c r="K22">
-        <v>16.29123703380204</v>
+        <v>13.60237096943992</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.9292716208371</v>
+        <v>18.72243899292238</v>
       </c>
       <c r="N22">
-        <v>13.48890350037619</v>
+        <v>21.55806754174564</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.34179866337615</v>
+        <v>13.01141546535783</v>
       </c>
       <c r="C23">
-        <v>12.26925598254352</v>
+        <v>9.129631802214739</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.74316299770881</v>
+        <v>16.01407161351246</v>
       </c>
       <c r="F23">
-        <v>43.15383151017284</v>
+        <v>46.36310242105836</v>
       </c>
       <c r="G23">
-        <v>2.083359597621958</v>
+        <v>3.691146105061897</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20.61193044964612</v>
+        <v>27.76502241204091</v>
       </c>
       <c r="J23">
-        <v>5.398356231551047</v>
+        <v>9.262662333943609</v>
       </c>
       <c r="K23">
-        <v>15.96883957255423</v>
+        <v>13.53557826329507</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.57810108274041</v>
+        <v>18.67505338192602</v>
       </c>
       <c r="N23">
-        <v>13.57684543134808</v>
+        <v>21.58079860398511</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.96756484421202</v>
+        <v>12.64177570465843</v>
       </c>
       <c r="C24">
-        <v>11.2715672685546</v>
+        <v>8.866655504169524</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.77860228540105</v>
+        <v>15.86518206915725</v>
       </c>
       <c r="F24">
-        <v>40.82990794290582</v>
+        <v>46.03328741407796</v>
       </c>
       <c r="G24">
-        <v>2.096033173083137</v>
+        <v>3.695117870668321</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.27245609413813</v>
+        <v>27.79740745023745</v>
       </c>
       <c r="J24">
-        <v>5.504087770556695</v>
+        <v>9.292788860615273</v>
       </c>
       <c r="K24">
-        <v>14.70432416259099</v>
+        <v>13.28511083154977</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.25396769956944</v>
+        <v>18.50112774090161</v>
       </c>
       <c r="N24">
-        <v>13.91739549133588</v>
+        <v>21.67026327673884</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.37793507013249</v>
+        <v>12.24243972666973</v>
       </c>
       <c r="C25">
-        <v>10.15927248076794</v>
+        <v>8.583552189840235</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.69214658529568</v>
+        <v>15.71486116960264</v>
       </c>
       <c r="F25">
-        <v>38.33214972011701</v>
+        <v>45.71547878671507</v>
       </c>
       <c r="G25">
-        <v>2.109999498456378</v>
+        <v>3.699713474897536</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.97880275259189</v>
+        <v>27.85162348545098</v>
       </c>
       <c r="J25">
-        <v>5.62173144885088</v>
+        <v>9.327741981594579</v>
       </c>
       <c r="K25">
-        <v>13.24364984528997</v>
+        <v>13.02165169445415</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.03344736724279</v>
+        <v>18.32605212084123</v>
       </c>
       <c r="N25">
-        <v>14.30006226231976</v>
+        <v>21.77399276076031</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_205/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_205/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.95032329936273</v>
+        <v>13.11159495557881</v>
       </c>
       <c r="C2">
-        <v>8.377319678785501</v>
+        <v>9.360507461620136</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.61354733220693</v>
+        <v>11.85537651520782</v>
       </c>
       <c r="F2">
-        <v>45.5150150595041</v>
+        <v>36.50753076108823</v>
       </c>
       <c r="G2">
-        <v>3.703368190076126</v>
+        <v>2.120602979657795</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.90804241427117</v>
+        <v>19.81865056921944</v>
       </c>
       <c r="J2">
-        <v>9.355610019263723</v>
+        <v>5.711707750755256</v>
       </c>
       <c r="K2">
-        <v>12.83475567117315</v>
+        <v>12.08130668996398</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.20853990229797</v>
+        <v>14.10265046006078</v>
       </c>
       <c r="N2">
-        <v>21.85661907271963</v>
+        <v>14.59464367617395</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.75483818139408</v>
+        <v>12.19191423919638</v>
       </c>
       <c r="C3">
-        <v>8.239845723147175</v>
+        <v>8.795947069470618</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.55097186909677</v>
+        <v>11.26754884049398</v>
       </c>
       <c r="F3">
-        <v>45.40045695178148</v>
+        <v>35.284828360821</v>
       </c>
       <c r="G3">
-        <v>3.706015662677202</v>
+        <v>2.128018049701678</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>27.9565210270328</v>
+        <v>19.74195267195513</v>
       </c>
       <c r="J3">
-        <v>9.375836252432247</v>
+        <v>5.774906030332805</v>
       </c>
       <c r="K3">
-        <v>12.71316611464694</v>
+        <v>11.38656766526142</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.13629358692559</v>
+        <v>13.45450203819686</v>
       </c>
       <c r="N3">
-        <v>21.91653272859114</v>
+        <v>14.80220804330361</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.63647734020331</v>
+        <v>11.66163762141424</v>
       </c>
       <c r="C4">
-        <v>8.156875839012327</v>
+        <v>8.438375696259799</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.51562652835702</v>
+        <v>10.89741819504964</v>
       </c>
       <c r="F4">
-        <v>45.34072724132225</v>
+        <v>34.54289027194737</v>
       </c>
       <c r="G4">
-        <v>3.707725912344236</v>
+        <v>2.132692688509317</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.99132133975244</v>
+        <v>19.70953106466739</v>
       </c>
       <c r="J4">
-        <v>9.388919298169538</v>
+        <v>5.81484565002638</v>
       </c>
       <c r="K4">
-        <v>12.64122137246965</v>
+        <v>10.96920216710082</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.09566728336914</v>
+        <v>13.04920008934949</v>
       </c>
       <c r="N4">
-        <v>21.9552578708792</v>
+        <v>14.93355722869914</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.58873101128005</v>
+        <v>11.4464976845024</v>
       </c>
       <c r="C5">
-        <v>8.123473766226969</v>
+        <v>8.290028237683375</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.5020072581182</v>
+        <v>10.74446259909661</v>
       </c>
       <c r="F5">
-        <v>45.31906877630643</v>
+        <v>34.24308834820366</v>
       </c>
       <c r="G5">
-        <v>3.708444222263829</v>
+        <v>2.13462946809782</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.00676589209519</v>
+        <v>19.69985582682861</v>
       </c>
       <c r="J5">
-        <v>9.394418168760676</v>
+        <v>5.831412598137113</v>
       </c>
       <c r="K5">
-        <v>12.61261608488916</v>
+        <v>10.79633808915307</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.08006290777535</v>
+        <v>12.88241110160454</v>
       </c>
       <c r="N5">
-        <v>21.97152674918894</v>
+        <v>14.98806525941868</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.5808341211265</v>
+        <v>11.41047946724365</v>
       </c>
       <c r="C6">
-        <v>8.117953425623435</v>
+        <v>8.265240146199575</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.4997934489618</v>
+        <v>10.71894231952436</v>
       </c>
       <c r="F6">
-        <v>45.3156347395927</v>
+        <v>34.19347012431053</v>
       </c>
       <c r="G6">
-        <v>3.708564789879885</v>
+        <v>2.134953025170362</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.00940665414081</v>
+        <v>19.69845843434651</v>
       </c>
       <c r="J6">
-        <v>9.395341376971809</v>
+        <v>5.834181279746322</v>
       </c>
       <c r="K6">
-        <v>12.60791012294423</v>
+        <v>10.76747202246721</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.07752960191111</v>
+        <v>12.8546248296858</v>
       </c>
       <c r="N6">
-        <v>21.97425768486282</v>
+        <v>14.99717564087832</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.63583135742688</v>
+        <v>11.65875601404329</v>
       </c>
       <c r="C7">
-        <v>8.156423650256979</v>
+        <v>8.436385521211967</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.51543966531863</v>
+        <v>10.8953637091312</v>
       </c>
       <c r="F7">
-        <v>45.34042427247335</v>
+        <v>34.53883628795912</v>
       </c>
       <c r="G7">
-        <v>3.707735513103164</v>
+        <v>2.132718678182352</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.99152451984365</v>
+        <v>19.70938646135099</v>
       </c>
       <c r="J7">
-        <v>9.388992779389902</v>
+        <v>5.815067891107325</v>
       </c>
       <c r="K7">
-        <v>12.64083266583064</v>
+        <v>10.96688186788379</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.09545297050581</v>
+        <v>13.0469569803103</v>
       </c>
       <c r="N7">
-        <v>21.95547530150753</v>
+        <v>14.93428836445966</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.88261433968447</v>
+        <v>12.80084315296065</v>
       </c>
       <c r="C8">
-        <v>8.329648088466511</v>
+        <v>9.168173580455338</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.591339535399</v>
+        <v>11.65470709127966</v>
       </c>
       <c r="F8">
-        <v>45.47332268408775</v>
+        <v>36.08430571909162</v>
       </c>
       <c r="G8">
-        <v>3.704263505146824</v>
+        <v>2.123135176691895</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.92371137951926</v>
+        <v>19.78906825250161</v>
       </c>
       <c r="J8">
-        <v>9.36244646522635</v>
+        <v>5.733266284125844</v>
       </c>
       <c r="K8">
-        <v>12.79228773315622</v>
+        <v>11.82189877588277</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.18286233780692</v>
+        <v>13.88081293271874</v>
       </c>
       <c r="N8">
-        <v>21.87687554728262</v>
+        <v>14.66540147836728</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.37682781303091</v>
+        <v>14.92807118567789</v>
       </c>
       <c r="C9">
-        <v>8.678690887238695</v>
+        <v>10.52392892928384</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.76407601158204</v>
+        <v>13.06407291258088</v>
       </c>
       <c r="F9">
-        <v>45.81737943993907</v>
+        <v>39.17182269701878</v>
       </c>
       <c r="G9">
-        <v>3.698123553256232</v>
+        <v>2.105249330667827</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.830791543474</v>
+        <v>20.06859254288907</v>
       </c>
       <c r="J9">
-        <v>9.315638034422546</v>
+        <v>5.581598993141559</v>
       </c>
       <c r="K9">
-        <v>13.10938520671625</v>
+        <v>13.74893540398743</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.38329647176801</v>
+        <v>15.44986149248277</v>
       </c>
       <c r="N9">
-        <v>21.73808265784492</v>
+        <v>14.16915125485571</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.74226424641001</v>
+        <v>16.34882794531761</v>
       </c>
       <c r="C10">
-        <v>8.938068331625711</v>
+        <v>11.54731340016416</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.9048110595362</v>
+        <v>14.04411594651186</v>
       </c>
       <c r="F10">
-        <v>46.11986708759709</v>
+        <v>41.46019926955714</v>
       </c>
       <c r="G10">
-        <v>3.694015478184833</v>
+        <v>2.09257330785003</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>27.78709631905667</v>
+        <v>20.35859080938289</v>
       </c>
       <c r="J10">
-        <v>9.284419349777915</v>
+        <v>5.475119408137163</v>
       </c>
       <c r="K10">
-        <v>13.35262774056384</v>
+        <v>15.05496988268291</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.54737962946579</v>
+        <v>16.58194291856596</v>
       </c>
       <c r="N10">
-        <v>21.64541324315353</v>
+        <v>13.82373143021368</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.90821221015296</v>
+        <v>16.96548899304042</v>
       </c>
       <c r="C11">
-        <v>9.056131489032362</v>
+        <v>11.99501857031076</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.97166189538221</v>
+        <v>14.4770335065093</v>
       </c>
       <c r="F11">
-        <v>46.26796786234541</v>
+        <v>42.50337680805911</v>
       </c>
       <c r="G11">
-        <v>3.69223310804351</v>
+        <v>2.086885994706343</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>27.7725815994211</v>
+        <v>20.51096492262435</v>
       </c>
       <c r="J11">
-        <v>9.270899810615589</v>
+        <v>5.42766840458902</v>
       </c>
       <c r="K11">
-        <v>13.46507923151145</v>
+        <v>15.62239429135535</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.6254722891649</v>
+        <v>17.20058503152866</v>
       </c>
       <c r="N11">
-        <v>21.60526480786388</v>
+        <v>13.67087985594365</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.97094604308329</v>
+        <v>17.19484398703382</v>
       </c>
       <c r="C12">
-        <v>9.100803174513334</v>
+        <v>12.16206934408212</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.99736754133095</v>
+        <v>14.63906822359195</v>
       </c>
       <c r="F12">
-        <v>46.32552962358621</v>
+        <v>42.89859710904621</v>
       </c>
       <c r="G12">
-        <v>3.691570521162491</v>
+        <v>2.084741762088407</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>27.76785815045931</v>
+        <v>20.57177935278993</v>
       </c>
       <c r="J12">
-        <v>9.265877936933144</v>
+        <v>5.409834782918169</v>
       </c>
       <c r="K12">
-        <v>13.50788332528183</v>
+        <v>15.83353052018131</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.65552130030094</v>
+        <v>17.43067536808891</v>
       </c>
       <c r="N12">
-        <v>21.59034958635084</v>
+        <v>13.61363193575946</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.95744096244756</v>
+        <v>17.14563164256743</v>
       </c>
       <c r="C13">
-        <v>9.091184662921368</v>
+        <v>12.12620111568896</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.9918142600118</v>
+        <v>14.6042562240311</v>
       </c>
       <c r="F13">
-        <v>46.31306738868355</v>
+        <v>42.81347218152344</v>
       </c>
       <c r="G13">
-        <v>3.691712672558131</v>
+        <v>2.085203174419387</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>27.76884102558859</v>
+        <v>20.55854060308819</v>
       </c>
       <c r="J13">
-        <v>9.266955148958539</v>
+        <v>5.413669677937046</v>
       </c>
       <c r="K13">
-        <v>13.49865546027484</v>
+        <v>15.78822293865841</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.64902880606184</v>
+        <v>17.38130527031942</v>
       </c>
       <c r="N13">
-        <v>21.59354904022859</v>
+        <v>13.62593276947127</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.91337587048983</v>
+        <v>16.98444094897586</v>
       </c>
       <c r="C14">
-        <v>9.059807642622546</v>
+        <v>12.0088112512973</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.97376897969933</v>
+        <v>14.49040249799799</v>
       </c>
       <c r="F14">
-        <v>46.27267403982056</v>
+        <v>42.53588848404771</v>
       </c>
       <c r="G14">
-        <v>3.692178349338281</v>
+        <v>2.0867094101801</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>27.77217749755753</v>
+        <v>20.51590475658722</v>
       </c>
       <c r="J14">
-        <v>9.270484702550306</v>
+        <v>5.426198555428463</v>
       </c>
       <c r="K14">
-        <v>13.46859653307862</v>
+        <v>15.63983883050017</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.62793499181041</v>
+        <v>17.21959776599477</v>
       </c>
       <c r="N14">
-        <v>21.60403195224887</v>
+        <v>13.6661572122237</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.88636889462462</v>
+        <v>16.88516825520002</v>
       </c>
       <c r="C15">
-        <v>9.04058223740727</v>
+        <v>11.93658545823182</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.9627661104022</v>
+        <v>14.42041515759039</v>
       </c>
       <c r="F15">
-        <v>46.24812364272702</v>
+        <v>42.36588271760693</v>
       </c>
       <c r="G15">
-        <v>3.692465197173719</v>
+        <v>2.087633190393992</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>27.77432189534709</v>
+        <v>20.49019975267925</v>
       </c>
       <c r="J15">
-        <v>9.272659365736651</v>
+        <v>5.433890233795854</v>
       </c>
       <c r="K15">
-        <v>13.45021225749357</v>
+        <v>15.54846607388063</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.61507596103286</v>
+        <v>17.12000666115457</v>
       </c>
       <c r="N15">
-        <v>21.61049054475292</v>
+        <v>13.69087899668584</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.73140766997855</v>
+        <v>16.30793966046385</v>
       </c>
       <c r="C16">
-        <v>8.930350044821514</v>
+        <v>11.51770240238014</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.90049776984918</v>
+        <v>14.01555961797111</v>
       </c>
       <c r="F16">
-        <v>46.11039705553648</v>
+        <v>41.39205739220586</v>
       </c>
       <c r="G16">
-        <v>3.694133693291727</v>
+        <v>2.092946416372955</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>27.78815296042146</v>
+        <v>20.34905902632599</v>
       </c>
       <c r="J16">
-        <v>9.285316573706966</v>
+        <v>5.47823971969328</v>
       </c>
       <c r="K16">
-        <v>13.34531176594398</v>
+        <v>15.01735886628153</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.54234390326434</v>
+        <v>16.54092293251513</v>
       </c>
       <c r="N16">
-        <v>21.64807738455461</v>
+        <v>13.83380820519402</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.63622227841967</v>
+        <v>15.94630532344639</v>
       </c>
       <c r="C17">
-        <v>8.862710773158645</v>
+        <v>11.25621537815915</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.86301159354795</v>
+        <v>13.76384821830002</v>
       </c>
       <c r="F17">
-        <v>46.02857414790643</v>
+        <v>40.7951020681075</v>
       </c>
       <c r="G17">
-        <v>3.695179345610723</v>
+        <v>2.096224834652148</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>27.79801272385438</v>
+        <v>20.26783376935288</v>
       </c>
       <c r="J17">
-        <v>9.293255759077073</v>
+        <v>5.505694655606647</v>
       </c>
       <c r="K17">
-        <v>13.28139283496724</v>
+        <v>14.68477569036085</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.49859551184228</v>
+        <v>16.23731267555029</v>
       </c>
       <c r="N17">
-        <v>21.67164943547042</v>
+        <v>13.92259832268957</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.58145053240279</v>
+        <v>15.73550561857767</v>
       </c>
       <c r="C18">
-        <v>8.823815826779246</v>
+        <v>11.10413049182519</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.84171790223668</v>
+        <v>13.61785670117868</v>
       </c>
       <c r="F18">
-        <v>45.98250183652589</v>
+        <v>40.45195868425448</v>
       </c>
       <c r="G18">
-        <v>3.6957889148919</v>
+        <v>2.098118063085169</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>27.80418844522293</v>
+        <v>20.2230297153566</v>
       </c>
       <c r="J18">
-        <v>9.297886384177756</v>
+        <v>5.52157934211525</v>
       </c>
       <c r="K18">
-        <v>13.24479996995954</v>
+        <v>14.49096314219848</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.47375856350527</v>
+        <v>16.07262426098211</v>
       </c>
       <c r="N18">
-        <v>21.68539642699866</v>
+        <v>13.97406967435597</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.56290373066565</v>
+        <v>15.66364904760799</v>
       </c>
       <c r="C19">
-        <v>8.810649719506177</v>
+        <v>11.05234562667748</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.83455462817224</v>
+        <v>13.56821975958639</v>
       </c>
       <c r="F19">
-        <v>45.96707347162571</v>
+        <v>40.33581683797275</v>
       </c>
       <c r="G19">
-        <v>3.695996704324436</v>
+        <v>2.098760433975837</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>27.80636605124779</v>
+        <v>20.20818346270743</v>
       </c>
       <c r="J19">
-        <v>9.299465275280811</v>
+        <v>5.526973861632364</v>
       </c>
       <c r="K19">
-        <v>13.23244087308102</v>
+        <v>14.42490576728456</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.46540575511879</v>
+        <v>16.01667771808919</v>
       </c>
       <c r="N19">
-        <v>21.69008339482988</v>
+        <v>13.99156551188551</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.6463578515589</v>
+        <v>15.98509069915973</v>
       </c>
       <c r="C20">
-        <v>8.869910460982128</v>
+        <v>11.2842249161008</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.86697450512845</v>
+        <v>13.79076934647714</v>
       </c>
       <c r="F20">
-        <v>46.03718208041517</v>
+        <v>40.85862835677862</v>
       </c>
       <c r="G20">
-        <v>3.695067192407336</v>
+        <v>2.095875071571676</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>27.79691089191999</v>
+        <v>20.27628094836081</v>
       </c>
       <c r="J20">
-        <v>9.292403975980635</v>
+        <v>5.502762420594178</v>
       </c>
       <c r="K20">
-        <v>13.28817962493555</v>
+        <v>14.72043976628387</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.50321900231076</v>
+        <v>16.2677039639514</v>
       </c>
       <c r="N20">
-        <v>21.66912059649274</v>
+        <v>13.91310478427906</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.92632226884928</v>
+        <v>17.03189864224476</v>
       </c>
       <c r="C21">
-        <v>9.069025180490051</v>
+        <v>12.04335826022395</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.97905884542702</v>
+        <v>14.52389596571972</v>
       </c>
       <c r="F21">
-        <v>46.28449865386893</v>
+        <v>42.61741704524133</v>
       </c>
       <c r="G21">
-        <v>3.692041233928448</v>
+        <v>2.086266752680823</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>27.77117650358146</v>
+        <v>20.52834203822612</v>
       </c>
       <c r="J21">
-        <v>9.269445339098557</v>
+        <v>5.422514911159078</v>
       </c>
       <c r="K21">
-        <v>13.47741986608964</v>
+        <v>15.68352334335396</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.63411796687153</v>
+        <v>17.26720763965287</v>
       </c>
       <c r="N21">
-        <v>21.60094505153832</v>
+        <v>13.65432494924513</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.10864278784683</v>
+        <v>17.69184691189396</v>
       </c>
       <c r="C22">
-        <v>9.19892643619589</v>
+        <v>12.52505428017932</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.05458168334922</v>
+        <v>14.99194555829782</v>
       </c>
       <c r="F22">
-        <v>46.45474056352294</v>
+        <v>43.76798718256098</v>
       </c>
       <c r="G22">
-        <v>3.69013559573107</v>
+        <v>2.080041088024192</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>27.75886365983033</v>
+        <v>20.71131066436714</v>
       </c>
       <c r="J22">
-        <v>9.255009733796106</v>
+        <v>5.370852348481804</v>
       </c>
       <c r="K22">
-        <v>13.60237096943992</v>
+        <v>16.29123703380203</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.72243899292238</v>
+        <v>17.92927162083705</v>
       </c>
       <c r="N22">
-        <v>21.55806754174564</v>
+        <v>13.48890350037619</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.01141546535783</v>
+        <v>17.34179866337621</v>
       </c>
       <c r="C23">
-        <v>9.129631802214739</v>
+        <v>12.26925598254347</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.01407161351246</v>
+        <v>14.74316299770884</v>
       </c>
       <c r="F23">
-        <v>46.36310242105836</v>
+        <v>43.1538315101729</v>
       </c>
       <c r="G23">
-        <v>3.691146105061897</v>
+        <v>2.083359597622093</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>27.76502241204091</v>
+        <v>20.61193044964618</v>
       </c>
       <c r="J23">
-        <v>9.262662333943609</v>
+        <v>5.398356231551146</v>
       </c>
       <c r="K23">
-        <v>13.53557826329507</v>
+        <v>15.96883957255424</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.67505338192602</v>
+        <v>17.5781010827404</v>
       </c>
       <c r="N23">
-        <v>21.58079860398511</v>
+        <v>13.5768454313482</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.64177570465843</v>
+        <v>15.96756484421205</v>
       </c>
       <c r="C24">
-        <v>8.866655504169524</v>
+        <v>11.2715672685546</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.86518206915725</v>
+        <v>13.77860228540106</v>
       </c>
       <c r="F24">
-        <v>46.03328741407796</v>
+        <v>40.82990794290583</v>
       </c>
       <c r="G24">
-        <v>3.695117870668321</v>
+        <v>2.096033173083533</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>27.79740745023745</v>
+        <v>20.27245609413814</v>
       </c>
       <c r="J24">
-        <v>9.292788860615273</v>
+        <v>5.504087770556669</v>
       </c>
       <c r="K24">
-        <v>13.28511083154977</v>
+        <v>14.70432416259101</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.50112774090161</v>
+        <v>16.25396769956944</v>
       </c>
       <c r="N24">
-        <v>21.67026327673884</v>
+        <v>13.91739549133591</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.24243972666973</v>
+        <v>14.37793507013259</v>
       </c>
       <c r="C25">
-        <v>8.583552189840235</v>
+        <v>10.15927248076794</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.71486116960264</v>
+        <v>12.69214658529565</v>
       </c>
       <c r="F25">
-        <v>45.71547878671507</v>
+        <v>38.33214972011698</v>
       </c>
       <c r="G25">
-        <v>3.699713474897536</v>
+        <v>2.109999498456243</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.85162348545098</v>
+        <v>19.97880275259182</v>
       </c>
       <c r="J25">
-        <v>9.327741981594579</v>
+        <v>5.621731448850791</v>
       </c>
       <c r="K25">
-        <v>13.02165169445415</v>
+        <v>13.24364984529009</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.32605212084123</v>
+        <v>15.03344736724276</v>
       </c>
       <c r="N25">
-        <v>21.77399276076031</v>
+        <v>14.30006226231974</v>
       </c>
       <c r="O25">
         <v>0</v>
